--- a/downloads/Uren.xlsx
+++ b/downloads/Uren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Azure\nopCommerce\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9909D8A-BCBE-4D9F-8B12-1F83B480DDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E729AD4-4A82-4C1A-BA07-979A04CF0FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F27C3AF-2C01-48B2-883D-3B997A083891}"/>
+    <workbookView xWindow="780" yWindow="690" windowWidth="14595" windowHeight="15510" xr2:uid="{5F27C3AF-2C01-48B2-883D-3B997A083891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>SEO gesprek</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>Validatie vouwwanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uur</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Deployer</t>
+  </si>
+  <si>
+    <t>Header logo</t>
   </si>
 </sst>
 </file>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF93E96-044E-4DED-827F-8D933B7D9058}">
-  <dimension ref="A5:E6"/>
+  <dimension ref="A5:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +418,7 @@
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44288</v>
       </c>
@@ -420,15 +432,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44290</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
       <c r="E6">
         <v>10</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1230</v>
+      </c>
+      <c r="F9">
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
